--- a/02_config/scenario_pv_60_hp_60_ev_60_mixed_10_summer_naive/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_mixed_10_summer_naive/agents.xlsx
@@ -29,12 +29,12 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
   </si>
   <si>
-    <t>general/aggregated_by</t>
-  </si>
-  <si>
     <t>general/parameters/area</t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t>sfh_38</t>
   </si>
   <si>
-    <t>nY1NHXG8fsxc9aI</t>
+    <t>ZlKeaRTRqHtmI7f</t>
   </si>
   <si>
     <t>000019889.csv</t>
@@ -1589,7 +1589,7 @@
     <t>clustering_represented_group/share</t>
   </si>
   <si>
-    <t>['sfh_25', 'sfh_1', 'sfh_29', 'sfh_3', 'sfh_16', 'sfh_21', 'sfh_18', 'sfh_14', 'sfh_27', 'sfh_35']</t>
+    <t>['sfh_11', 'sfh_4', 'sfh_15', 'sfh_16', 'sfh_38', 'sfh_13', 'sfh_24', 'sfh_20', 'sfh_18', 'sfh_9']</t>
   </si>
   <si>
     <t>[1]</t>
@@ -2844,11 +2844,11 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
-        <v>3</v>
+      <c r="G2">
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -2857,7 +2857,7 @@
         <v>2.6</v>
       </c>
       <c r="K2">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -3016,7 +3016,7 @@
         <v>60</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>368</v>
@@ -3298,7 +3298,7 @@
         <v>488</v>
       </c>
       <c r="IN2">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO2">
         <v>1</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:290">
@@ -3371,11 +3371,8 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>328</v>
+      <c r="G3">
+        <v>3</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -3531,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>368</v>
@@ -3723,7 +3720,7 @@
         <v>488</v>
       </c>
       <c r="IN3">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO3">
         <v>1</v>
@@ -3774,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3783,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:290">
@@ -3796,7 +3793,7 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4</v>
       </c>
       <c r="H4">
@@ -3953,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>368</v>
@@ -4145,7 +4142,7 @@
         <v>488</v>
       </c>
       <c r="IN4">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO4">
         <v>1</v>
@@ -4196,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4205,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:290">
@@ -4218,11 +4215,8 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>328</v>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -4393,7 +4387,7 @@
         <v>51</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>368</v>
@@ -4675,7 +4669,7 @@
         <v>488</v>
       </c>
       <c r="IN5">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO5">
         <v>1</v>
@@ -4732,7 +4726,7 @@
         <v>51</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4741,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM5" t="s">
         <v>503</v>
@@ -4808,7 +4802,10 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6">
         <v>4</v>
       </c>
       <c r="H6">
@@ -4965,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>368</v>
@@ -5157,7 +5154,7 @@
         <v>488</v>
       </c>
       <c r="IN6">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO6">
         <v>1</v>
@@ -5208,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5217,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:290">
@@ -5230,7 +5227,7 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4</v>
       </c>
       <c r="H7">
@@ -5402,7 +5399,7 @@
         <v>50</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>368</v>
@@ -5735,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5744,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:290">
@@ -5757,11 +5754,11 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
-        <v>3</v>
+      <c r="G8">
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -5770,7 +5767,7 @@
         <v>2.6</v>
       </c>
       <c r="K8">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -5929,7 +5926,7 @@
         <v>90</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>368</v>
@@ -6211,7 +6208,7 @@
         <v>488</v>
       </c>
       <c r="IN8">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO8">
         <v>1</v>
@@ -6268,7 +6265,7 @@
         <v>51</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH8">
         <v>9300</v>
@@ -6283,7 +6280,7 @@
         <v>51</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM8" t="s">
         <v>504</v>
@@ -6323,7 +6320,7 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4</v>
       </c>
       <c r="H9">
@@ -6495,7 +6492,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>368</v>
@@ -6777,7 +6774,7 @@
         <v>488</v>
       </c>
       <c r="IN9">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO9">
         <v>1</v>
@@ -6828,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6837,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM9" t="s">
         <v>505</v>
@@ -6877,11 +6874,11 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
-        <v>4</v>
+      <c r="G10">
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -6890,7 +6887,7 @@
         <v>2.6</v>
       </c>
       <c r="K10">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -7034,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>368</v>
@@ -7226,7 +7223,7 @@
         <v>488</v>
       </c>
       <c r="IN10">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO10">
         <v>1</v>
@@ -7277,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7286,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:290">
@@ -7299,11 +7296,14 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
-        <v>4</v>
+      <c r="F11" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -7312,7 +7312,7 @@
         <v>2.6</v>
       </c>
       <c r="K11">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>368</v>
@@ -7648,7 +7648,7 @@
         <v>488</v>
       </c>
       <c r="IN11">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO11">
         <v>1</v>
@@ -7699,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ11">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:290">
@@ -7721,7 +7721,7 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4</v>
       </c>
       <c r="H12">
@@ -7878,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>368</v>
@@ -8070,7 +8070,7 @@
         <v>488</v>
       </c>
       <c r="IN12">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO12">
         <v>1</v>
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -8130,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:290">
@@ -8143,7 +8143,10 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>328</v>
+      </c>
+      <c r="G13">
         <v>4</v>
       </c>
       <c r="H13">
@@ -8300,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>368</v>
@@ -8492,7 +8495,7 @@
         <v>488</v>
       </c>
       <c r="IN13">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO13">
         <v>1</v>
@@ -8543,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8552,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:290">
@@ -8565,11 +8568,11 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
-        <v>3</v>
+      <c r="G14">
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -8578,7 +8581,7 @@
         <v>2.6</v>
       </c>
       <c r="K14">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -8722,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>368</v>
@@ -8965,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -8974,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:290">
@@ -8987,7 +8990,10 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
@@ -9159,7 +9165,7 @@
         <v>49</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>368</v>
@@ -9414,7 +9420,7 @@
         <v>488</v>
       </c>
       <c r="IN15">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO15">
         <v>1</v>
@@ -9465,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9474,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:290">
@@ -9487,11 +9493,8 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4</v>
-      </c>
-      <c r="G16" t="s">
-        <v>328</v>
       </c>
       <c r="H16">
         <v>130</v>
@@ -9647,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>368</v>
@@ -9839,7 +9842,7 @@
         <v>488</v>
       </c>
       <c r="IN16">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO16">
         <v>1</v>
@@ -9890,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -9899,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:290">
@@ -9912,7 +9915,10 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>328</v>
+      </c>
+      <c r="G17">
         <v>4</v>
       </c>
       <c r="H17">
@@ -10084,7 +10090,7 @@
         <v>45</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>368</v>
@@ -10339,7 +10345,7 @@
         <v>488</v>
       </c>
       <c r="IN17">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO17">
         <v>1</v>
@@ -10390,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10399,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:290">
@@ -10412,14 +10418,14 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F18" t="s">
         <v>328</v>
       </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
       <c r="H18">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -10428,7 +10434,7 @@
         <v>2.6</v>
       </c>
       <c r="K18">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -10587,7 +10593,7 @@
         <v>50</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>368</v>
@@ -10869,7 +10875,7 @@
         <v>488</v>
       </c>
       <c r="IN18">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO18">
         <v>1</v>
@@ -10920,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -10929,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:290">
@@ -10942,7 +10948,7 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4</v>
       </c>
       <c r="H19">
@@ -11114,7 +11120,7 @@
         <v>50</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>368</v>
@@ -11369,7 +11375,7 @@
         <v>488</v>
       </c>
       <c r="IN19">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO19">
         <v>1</v>
@@ -11420,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11429,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:290">
@@ -11442,11 +11448,11 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F20" t="s">
         <v>328</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
       </c>
       <c r="H20">
         <v>100</v>
@@ -11602,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>368</v>
@@ -11845,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -11854,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:290">
@@ -11867,7 +11873,7 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3</v>
       </c>
       <c r="H21">
@@ -12024,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>368</v>
@@ -12267,7 +12273,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12276,7 +12282,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:290">
@@ -12289,7 +12295,10 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22">
         <v>3</v>
       </c>
       <c r="H22">
@@ -12446,7 +12455,7 @@
         <v>0</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>368</v>
@@ -12638,7 +12647,7 @@
         <v>488</v>
       </c>
       <c r="IN22">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO22">
         <v>1</v>
@@ -12689,7 +12698,7 @@
         <v>0</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -12698,7 +12707,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:290">
@@ -12711,14 +12720,11 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23" t="s">
-        <v>328</v>
+      <c r="G23">
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -12727,7 +12733,7 @@
         <v>2.6</v>
       </c>
       <c r="K23">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -12886,7 +12892,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>368</v>
@@ -13168,7 +13174,7 @@
         <v>488</v>
       </c>
       <c r="IN23">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO23">
         <v>1</v>
@@ -13225,7 +13231,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13240,7 +13246,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM23" t="s">
         <v>506</v>
@@ -13280,11 +13286,11 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
-        <v>3</v>
+      <c r="G24">
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -13293,7 +13299,7 @@
         <v>2.6</v>
       </c>
       <c r="K24">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -13452,7 +13458,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>368</v>
@@ -13758,7 +13764,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -13767,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:290">
@@ -13780,7 +13786,7 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3</v>
       </c>
       <c r="H25">
@@ -13952,7 +13958,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>368</v>
@@ -14258,7 +14264,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14267,7 +14273,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:290">
@@ -14280,11 +14286,14 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
-        <v>4</v>
+      <c r="F26" t="s">
+        <v>328</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -14293,7 +14302,7 @@
         <v>2.6</v>
       </c>
       <c r="K26">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -14437,7 +14446,7 @@
         <v>0</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>368</v>
@@ -14680,7 +14689,7 @@
         <v>0</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -14689,7 +14698,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:290">
@@ -14702,14 +14711,11 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27" t="s">
-        <v>328</v>
+      <c r="G27">
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -14718,7 +14724,7 @@
         <v>2.6</v>
       </c>
       <c r="K27">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -14877,7 +14883,7 @@
         <v>52</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>368</v>
@@ -15210,7 +15216,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15219,7 +15225,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:290">
@@ -15232,11 +15238,11 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
-        <v>3</v>
+      <c r="G28">
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -15245,7 +15251,7 @@
         <v>2.6</v>
       </c>
       <c r="K28">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -15404,7 +15410,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>368</v>
@@ -15686,7 +15692,7 @@
         <v>488</v>
       </c>
       <c r="IN28">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO28">
         <v>1</v>
@@ -15743,7 +15749,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -15752,7 +15758,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:290">
@@ -15765,11 +15771,8 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>4</v>
-      </c>
-      <c r="G29" t="s">
-        <v>328</v>
       </c>
       <c r="H29">
         <v>130</v>
@@ -15940,7 +15943,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>368</v>
@@ -16225,7 +16228,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16234,7 +16237,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:290">
@@ -16247,11 +16250,11 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
-        <v>4</v>
+      <c r="G30">
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -16260,7 +16263,7 @@
         <v>2.6</v>
       </c>
       <c r="K30">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -16419,7 +16422,7 @@
         <v>41</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>368</v>
@@ -16701,7 +16704,7 @@
         <v>488</v>
       </c>
       <c r="IN30">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO30">
         <v>1</v>
@@ -16752,7 +16755,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -16761,7 +16764,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM30" t="s">
         <v>507</v>
@@ -16828,14 +16831,11 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-      <c r="G31" t="s">
-        <v>328</v>
+      <c r="G31">
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -16844,7 +16844,7 @@
         <v>2.6</v>
       </c>
       <c r="K31">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -17003,7 +17003,7 @@
         <v>41</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>368</v>
@@ -17285,7 +17285,7 @@
         <v>488</v>
       </c>
       <c r="IN31">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO31">
         <v>1</v>
@@ -17342,7 +17342,7 @@
         <v>41</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17351,7 +17351,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM31" t="s">
         <v>508</v>
@@ -17418,11 +17418,11 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
-        <v>3</v>
+      <c r="G32">
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -17431,7 +17431,7 @@
         <v>2.6</v>
       </c>
       <c r="K32">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -17590,7 +17590,7 @@
         <v>65</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>368</v>
@@ -17929,7 +17929,7 @@
         <v>64</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH32">
         <v>4000</v>
@@ -17944,7 +17944,7 @@
         <v>65</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:290">
@@ -17957,7 +17957,7 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
@@ -18129,7 +18129,7 @@
         <v>39</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>368</v>
@@ -18462,7 +18462,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18471,7 +18471,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:290">
@@ -18484,7 +18484,7 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>3</v>
       </c>
       <c r="H34">
@@ -18656,7 +18656,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>368</v>
@@ -18989,7 +18989,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -18998,7 +18998,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM34" t="s">
         <v>509</v>
@@ -19065,11 +19065,11 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
-        <v>3</v>
+      <c r="G35">
+        <v>4</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -19078,7 +19078,7 @@
         <v>2.6</v>
       </c>
       <c r="K35">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -19222,7 +19222,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>368</v>
@@ -19465,7 +19465,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19474,7 +19474,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:290">
@@ -19487,7 +19487,7 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>3</v>
       </c>
       <c r="H36">
@@ -19644,7 +19644,7 @@
         <v>0</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>368</v>
@@ -19836,7 +19836,7 @@
         <v>488</v>
       </c>
       <c r="IN36">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO36">
         <v>1</v>
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -19896,7 +19896,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:290">
@@ -19909,11 +19909,8 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37" t="s">
-        <v>328</v>
+      <c r="G37">
+        <v>3</v>
       </c>
       <c r="H37">
         <v>100</v>
@@ -20084,7 +20081,7 @@
         <v>90</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>368</v>
@@ -20423,7 +20420,7 @@
         <v>71</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH37">
         <v>10600</v>
@@ -20438,7 +20435,7 @@
         <v>71</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:290">
@@ -20451,11 +20448,11 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
-        <v>4</v>
+      <c r="G38">
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -20464,7 +20461,7 @@
         <v>2.6</v>
       </c>
       <c r="K38">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -20623,7 +20620,7 @@
         <v>60</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>368</v>
@@ -20905,7 +20902,7 @@
         <v>488</v>
       </c>
       <c r="IN38">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO38">
         <v>1</v>
@@ -20956,7 +20953,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -20965,7 +20962,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:290">
@@ -20978,7 +20975,7 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>4</v>
       </c>
       <c r="H39">
@@ -21150,7 +21147,7 @@
         <v>50</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>368</v>
@@ -21432,7 +21429,7 @@
         <v>488</v>
       </c>
       <c r="IN39">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO39">
         <v>1</v>
@@ -21489,7 +21486,7 @@
         <v>50</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21498,7 +21495,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:290">
@@ -21511,7 +21508,10 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="s">
+        <v>328</v>
+      </c>
+      <c r="G40">
         <v>3</v>
       </c>
       <c r="H40">
@@ -21668,7 +21668,7 @@
         <v>0</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>368</v>
@@ -21860,7 +21860,7 @@
         <v>488</v>
       </c>
       <c r="IN40">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO40">
         <v>1</v>
@@ -21911,7 +21911,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -21920,7 +21920,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21953,7 +21953,7 @@
         <v>514</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>515</v>
@@ -22081,7 +22081,7 @@
         <v>488</v>
       </c>
       <c r="V2">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="W2">
         <v>1</v>
